--- a/Output/Classifier Inference/XGBoost/VGG Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/XGBoost/VGG Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001899083455403646</v>
+        <v>0.0002201199531555176</v>
       </c>
       <c r="B2" t="n">
-        <v>1.275408633582032e-07</v>
+        <v>1.478307274382254e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/XGBoost/VGG Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/XGBoost/VGG Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002201199531555176</v>
+        <v>0.0001866896947224935</v>
       </c>
       <c r="B2" t="n">
-        <v>1.478307274382254e-07</v>
+        <v>1.253792442729976e-07</v>
       </c>
     </row>
   </sheetData>
